--- a/InputData/elec/SoFCRfP/Share of Fwd Cost Reqd for Profitability.xlsx
+++ b/InputData/elec/SoFCRfP/Share of Fwd Cost Reqd for Profitability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoFCRfP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\SoFCRfP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB2474-08F7-4CEF-A98A-6E21A7AB6559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A7BDB0-4B42-425F-9915-EA09F3AA38F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="5400" windowWidth="28770" windowHeight="17370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>these plants from consideration for economic retirement.</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -955,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1005,10 +1023,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1175,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/SoFCRfP/Share of Fwd Cost Reqd for Profitability.xlsx
+++ b/InputData/elec/SoFCRfP/Share of Fwd Cost Reqd for Profitability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\SoFCRfP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A7BDB0-4B42-425F-9915-EA09F3AA38F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B33BEB8-F3E7-4315-AD28-3DE23E600314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -129,14 +129,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +270,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -613,9 +623,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1023,10 +1036,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,10 +1229,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
